--- a/Hosty.xlsx
+++ b/Hosty.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomas\OneDrive\Pulpit\SZKOLENIA JSystems\Uczenie maszynowe w Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomas\Uczenie-maszynowe-w-Python-25-11-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9251D7-2FB8-4E9A-B76F-B800D6631295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F604D170-C7A3-4C7A-9F5C-676BFB013E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Identyfikator</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>labuser</t>
-  </si>
-  <si>
-    <t>hW-pg}87{)@BFUqeHJ2b~?</t>
   </si>
   <si>
     <t>LOGIN</t>
@@ -484,17 +481,17 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,131 +502,129 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>8219461</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>8244615</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>8261221</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>8290624</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>8319278</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>8320764</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>8350743</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8354696</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8355271</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>8383722</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="3:4" ht="16.8" x14ac:dyDescent="0.4">
       <c r="C17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="D17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
